--- a/03.ButterKnife/poster.xlsx
+++ b/03.ButterKnife/poster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaemin/Documents/da.head()/Female-led-Korean-Films/03.ButterKnife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEA96C-CAE5-8744-96A9-07D08B8DB3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A12E8-FEA0-3046-9894-199097D49DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11200" yWindow="460" windowWidth="17600" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6410,7 +6410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C124" sqref="C124"/>
     </sheetView>
